--- a/summary.xlsx
+++ b/summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Page</t>
   </si>
@@ -50,6 +50,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Page 2</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -157,25 +163,31 @@
       <c r="F2" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="G2" t="s" s="0">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>11</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>9</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -20,7 +20,7 @@
     <t>No. of Images</t>
   </si>
   <si>
-    <t>No. of  CSS</t>
+    <t>No. of CSS</t>
   </si>
   <si>
     <t>Scripts</t>
@@ -115,7 +115,7 @@
   <cols>
     <col min="1" max="1" width="6.96875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.35546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.69140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.1953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.00390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.5390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="20.30078125" customWidth="true" bestFit="true"/>
